--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>種類</t>
   </si>
@@ -34,19 +34,16 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>★</t>
-  </si>
-  <si>
     <t>蘇震清</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行五常分行 臺北市中山區龍江路356巷 76號</t>
-  </si>
-  <si>
-    <t>1,468,576</t>
-  </si>
-  <si>
-    <t>100年05月 16日</t>
+    <t>臺灣新光商業銀行五常分行臺北市中山區龍江路356巷76號</t>
+  </si>
+  <si>
+    <t>1468576</t>
+  </si>
+  <si>
+    <t>100年05月16日</t>
   </si>
   <si>
     <t>貸款</t>
@@ -438,23 +435,21 @@
       <c r="A2" s="1">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
@@ -14,25 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>蘇震清</t>
   </si>
@@ -105,12 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,51 +386,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>蘇震清</t>
   </si>
@@ -87,11 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -407,6 +408,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp31e11.xlsx
@@ -14,7 +14,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>蘇震清</t>
   </si>
@@ -22,13 +61,22 @@
     <t>臺灣新光商業銀行五常分行臺北市中山區龍江路356巷76號</t>
   </si>
   <si>
-    <t>1468576</t>
-  </si>
-  <si>
     <t>100年05月16日</t>
   </si>
   <si>
     <t>貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp31e11</t>
   </si>
 </sst>
 </file>
@@ -387,49 +435,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1468576</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
